--- a/Data Management/R_Dataframes_TLA/38358/Organised/Hypertension/Neo/NonCancerIllness_HypertensionMapping.xlsx
+++ b/Data Management/R_Dataframes_TLA/38358/Organised/Hypertension/Neo/NonCancerIllness_HypertensionMapping.xlsx
@@ -15,14 +15,14 @@
     <sheet name="NonCancerIllness" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NonCancerIllness!$A$1:$G$447</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NonCancerIllness!$A$1:$H$447</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="520">
   <si>
     <t>coding</t>
   </si>
@@ -1567,6 +1567,21 @@
   </si>
   <si>
     <t>musculoskeletal</t>
+  </si>
+  <si>
+    <t>AlternateDiagnoses</t>
+  </si>
+  <si>
+    <t>liver failure</t>
+  </si>
+  <si>
+    <t>heart failure</t>
+  </si>
+  <si>
+    <t>heart attack</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2152,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2421,12 +2457,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G447"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:H447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G448" sqref="G448"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,10 +2474,11 @@
     <col min="5" max="5" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2463,8 +2500,11 @@
       <c r="G1" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1425</v>
       </c>
@@ -2480,8 +2520,11 @@
       <c r="G2" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1491</v>
       </c>
@@ -2500,8 +2543,11 @@
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1583</v>
       </c>
@@ -2520,8 +2566,11 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1086</v>
       </c>
@@ -2540,8 +2589,11 @@
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1081</v>
       </c>
@@ -2557,8 +2609,11 @@
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1083</v>
       </c>
@@ -2574,8 +2629,11 @@
       <c r="G7" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1082</v>
       </c>
@@ -2591,8 +2649,11 @@
       <c r="G8" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1074</v>
       </c>
@@ -2608,8 +2669,11 @@
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1588</v>
       </c>
@@ -2628,8 +2692,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1079</v>
       </c>
@@ -2645,8 +2712,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1471</v>
       </c>
@@ -2665,8 +2735,11 @@
       <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1483</v>
       </c>
@@ -2685,8 +2758,11 @@
       <c r="G13" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1485</v>
       </c>
@@ -2705,8 +2781,11 @@
       <c r="G14" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1486</v>
       </c>
@@ -2725,8 +2804,11 @@
       <c r="G15" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1487</v>
       </c>
@@ -2745,8 +2827,11 @@
       <c r="G16" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1484</v>
       </c>
@@ -2765,8 +2850,11 @@
       <c r="G17" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1077</v>
       </c>
@@ -2782,8 +2870,11 @@
       <c r="G18" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1075</v>
       </c>
@@ -2799,8 +2890,11 @@
       <c r="G19" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1076</v>
       </c>
@@ -2816,8 +2910,11 @@
       <c r="G20" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1587</v>
       </c>
@@ -2839,8 +2936,11 @@
       <c r="G21" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1490</v>
       </c>
@@ -2862,8 +2962,11 @@
       <c r="G22" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1586</v>
       </c>
@@ -2882,8 +2985,11 @@
       <c r="G23" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1585</v>
       </c>
@@ -2905,8 +3011,11 @@
       <c r="G24" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1489</v>
       </c>
@@ -2928,8 +3037,11 @@
       <c r="G25" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1488</v>
       </c>
@@ -2951,8 +3063,11 @@
       <c r="G26" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1584</v>
       </c>
@@ -2971,8 +3086,11 @@
       <c r="G27" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1078</v>
       </c>
@@ -2988,8 +3106,11 @@
       <c r="G28" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1426</v>
       </c>
@@ -3005,8 +3126,11 @@
       <c r="G29" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1590</v>
       </c>
@@ -3025,8 +3149,11 @@
       <c r="G30" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1589</v>
       </c>
@@ -3045,8 +3172,11 @@
       <c r="G31" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1080</v>
       </c>
@@ -3062,8 +3192,11 @@
       <c r="G32" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1479</v>
       </c>
@@ -3079,8 +3212,11 @@
       <c r="G33" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1066</v>
       </c>
@@ -3093,8 +3229,11 @@
       <c r="G34" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1473</v>
       </c>
@@ -3107,8 +3246,11 @@
       <c r="G35" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1072</v>
       </c>
@@ -3124,8 +3266,11 @@
       <c r="G36" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1073</v>
       </c>
@@ -3141,8 +3286,11 @@
       <c r="G37" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1065</v>
       </c>
@@ -3155,8 +3303,11 @@
       <c r="G38" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1495</v>
       </c>
@@ -3172,8 +3323,11 @@
       <c r="G39" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1593</v>
       </c>
@@ -3189,8 +3343,11 @@
       <c r="G40" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1494</v>
       </c>
@@ -3206,8 +3363,11 @@
       <c r="G41" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1493</v>
       </c>
@@ -3220,8 +3380,11 @@
       <c r="G42" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1591</v>
       </c>
@@ -3240,8 +3403,11 @@
       <c r="G43" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1592</v>
       </c>
@@ -3260,8 +3426,11 @@
       <c r="G44" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1492</v>
       </c>
@@ -3277,8 +3446,11 @@
       <c r="G45" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1088</v>
       </c>
@@ -3294,8 +3466,11 @@
       <c r="G46" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1087</v>
       </c>
@@ -3311,8 +3486,11 @@
       <c r="G47" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1067</v>
       </c>
@@ -3325,8 +3503,11 @@
       <c r="G48" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1094</v>
       </c>
@@ -3342,8 +3523,11 @@
       <c r="G49" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1093</v>
       </c>
@@ -3359,8 +3543,11 @@
       <c r="G50" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1068</v>
       </c>
@@ -3373,8 +3560,11 @@
       <c r="G51" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1682</v>
       </c>
@@ -3387,8 +3577,11 @@
       <c r="G52" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>1432</v>
       </c>
@@ -3401,8 +3594,11 @@
       <c r="G53" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>1239</v>
       </c>
@@ -3415,8 +3611,11 @@
       <c r="G54" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>1521</v>
       </c>
@@ -3432,8 +3631,11 @@
       <c r="G55" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>1221</v>
       </c>
@@ -3449,8 +3651,11 @@
       <c r="G56" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>1222</v>
       </c>
@@ -3466,8 +3671,11 @@
       <c r="G57" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1223</v>
       </c>
@@ -3483,8 +3691,11 @@
       <c r="G58" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>1220</v>
       </c>
@@ -3497,8 +3708,11 @@
       <c r="G59" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1233</v>
       </c>
@@ -3514,8 +3728,11 @@
       <c r="G60" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1234</v>
       </c>
@@ -3531,8 +3748,11 @@
       <c r="G61" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1235</v>
       </c>
@@ -3548,8 +3768,11 @@
       <c r="G62" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1236</v>
       </c>
@@ -3565,8 +3788,11 @@
       <c r="G63" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>1232</v>
       </c>
@@ -3579,8 +3805,11 @@
       <c r="G64" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>1429</v>
       </c>
@@ -3596,8 +3825,11 @@
       <c r="G65" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>1431</v>
       </c>
@@ -3613,8 +3845,11 @@
       <c r="G66" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>1430</v>
       </c>
@@ -3630,8 +3865,11 @@
       <c r="G67" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>1238</v>
       </c>
@@ -3647,8 +3885,11 @@
       <c r="G68" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>1237</v>
       </c>
@@ -3661,8 +3902,11 @@
       <c r="G69" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>1611</v>
       </c>
@@ -3678,8 +3922,11 @@
       <c r="G70" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>1230</v>
       </c>
@@ -3695,8 +3942,11 @@
       <c r="G71" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>1229</v>
       </c>
@@ -3709,8 +3959,11 @@
       <c r="G72" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>1522</v>
       </c>
@@ -3726,8 +3979,11 @@
       <c r="G73" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>1225</v>
       </c>
@@ -3743,8 +3999,11 @@
       <c r="G74" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>1226</v>
       </c>
@@ -3760,8 +4019,11 @@
       <c r="G75" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>1610</v>
       </c>
@@ -3777,8 +4039,11 @@
       <c r="G76" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>1228</v>
       </c>
@@ -3794,8 +4059,11 @@
       <c r="G77" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1428</v>
       </c>
@@ -3811,8 +4079,11 @@
       <c r="G78" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1224</v>
       </c>
@@ -3825,8 +4096,11 @@
       <c r="G79" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>1504</v>
       </c>
@@ -3845,8 +4119,11 @@
       <c r="G80" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>1505</v>
       </c>
@@ -3865,8 +4142,11 @@
       <c r="G81" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1503</v>
       </c>
@@ -3882,8 +4162,11 @@
       <c r="G82" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>1502</v>
       </c>
@@ -3899,8 +4182,11 @@
       <c r="G83" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>1601</v>
       </c>
@@ -3916,8 +4202,11 @@
       <c r="G84" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>1602</v>
       </c>
@@ -3933,8 +4222,11 @@
       <c r="G85" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>1600</v>
       </c>
@@ -3950,8 +4242,11 @@
       <c r="G86" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>1459</v>
       </c>
@@ -3967,8 +4262,11 @@
       <c r="G87" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1599</v>
       </c>
@@ -3984,8 +4282,11 @@
       <c r="G88" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>1458</v>
       </c>
@@ -4001,8 +4302,11 @@
       <c r="G89" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>1457</v>
       </c>
@@ -4018,8 +4322,11 @@
       <c r="G90" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>1462</v>
       </c>
@@ -4038,8 +4345,11 @@
       <c r="G91" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>1463</v>
       </c>
@@ -4058,8 +4368,11 @@
       <c r="G92" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1461</v>
       </c>
@@ -4075,8 +4388,11 @@
       <c r="G93" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1154</v>
       </c>
@@ -4092,8 +4408,11 @@
       <c r="G94" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>1456</v>
       </c>
@@ -4109,8 +4428,11 @@
       <c r="G95" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>1460</v>
       </c>
@@ -4126,8 +4448,11 @@
       <c r="G96" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>1603</v>
       </c>
@@ -4143,8 +4468,11 @@
       <c r="G97" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>1160</v>
       </c>
@@ -4163,8 +4491,11 @@
       <c r="G98" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>1475</v>
       </c>
@@ -4183,8 +4514,11 @@
       <c r="G99" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>1159</v>
       </c>
@@ -4200,8 +4534,11 @@
       <c r="G100" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>1163</v>
       </c>
@@ -4220,8 +4557,11 @@
       <c r="G101" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>1162</v>
       </c>
@@ -4240,8 +4580,11 @@
       <c r="G102" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>1161</v>
       </c>
@@ -4257,8 +4600,11 @@
       <c r="G103" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>1507</v>
       </c>
@@ -4274,8 +4620,11 @@
       <c r="G104" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>1578</v>
       </c>
@@ -4297,8 +4646,11 @@
       <c r="G105" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>1579</v>
       </c>
@@ -4320,8 +4672,11 @@
       <c r="G106" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>1580</v>
       </c>
@@ -4343,8 +4698,11 @@
       <c r="G107" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>1581</v>
       </c>
@@ -4366,8 +4724,11 @@
       <c r="G108" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>1582</v>
       </c>
@@ -4389,8 +4750,11 @@
       <c r="G109" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>1156</v>
       </c>
@@ -4409,8 +4773,11 @@
       <c r="G110" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>1157</v>
       </c>
@@ -4429,8 +4796,11 @@
       <c r="G111" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>1155</v>
       </c>
@@ -4446,8 +4816,11 @@
       <c r="G112" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>1508</v>
       </c>
@@ -4463,8 +4836,11 @@
       <c r="G113" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>1604</v>
       </c>
@@ -4483,8 +4859,11 @@
       <c r="G114" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>1506</v>
       </c>
@@ -4503,8 +4882,11 @@
       <c r="G115" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>1158</v>
       </c>
@@ -4520,8 +4902,11 @@
       <c r="G116" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>1165</v>
       </c>
@@ -4540,8 +4925,11 @@
       <c r="G117" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>1164</v>
       </c>
@@ -4557,8 +4945,11 @@
       <c r="G118" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>1136</v>
       </c>
@@ -4571,8 +4962,11 @@
       <c r="G119" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>1138</v>
       </c>
@@ -4588,8 +4982,11 @@
       <c r="G120" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>1474</v>
       </c>
@@ -4605,8 +5002,11 @@
       <c r="G121" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>1140</v>
       </c>
@@ -4622,8 +5022,11 @@
       <c r="G122" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>1141</v>
       </c>
@@ -4639,8 +5042,11 @@
       <c r="G123" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>1139</v>
       </c>
@@ -4656,8 +5062,11 @@
       <c r="G124" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>1134</v>
       </c>
@@ -4670,8 +5079,11 @@
       <c r="G125" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>1605</v>
       </c>
@@ -4690,8 +5102,11 @@
       <c r="G126" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>1606</v>
       </c>
@@ -4710,8 +5125,11 @@
       <c r="G127" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>1513</v>
       </c>
@@ -4730,8 +5148,11 @@
       <c r="G128" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>1512</v>
       </c>
@@ -4750,8 +5171,11 @@
       <c r="G129" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>1511</v>
       </c>
@@ -4767,8 +5191,11 @@
       <c r="G130" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>1510</v>
       </c>
@@ -4784,8 +5211,11 @@
       <c r="G131" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>1509</v>
       </c>
@@ -4801,8 +5231,11 @@
       <c r="G132" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>1191</v>
       </c>
@@ -4818,8 +5251,11 @@
       <c r="G133" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>1400</v>
       </c>
@@ -4835,8 +5271,11 @@
       <c r="G134" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>1190</v>
       </c>
@@ -4852,8 +5291,11 @@
       <c r="G135" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>1137</v>
       </c>
@@ -4866,8 +5308,11 @@
       <c r="G136" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>1142</v>
       </c>
@@ -4883,8 +5328,11 @@
       <c r="G137" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>1143</v>
       </c>
@@ -4900,8 +5348,11 @@
       <c r="G138" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>1501</v>
       </c>
@@ -4917,8 +5368,11 @@
       <c r="G139" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>1135</v>
       </c>
@@ -4931,8 +5385,11 @@
       <c r="G140" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>1666</v>
       </c>
@@ -4948,8 +5405,11 @@
       <c r="G141" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>1367</v>
       </c>
@@ -4965,8 +5425,11 @@
       <c r="G142" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>1560</v>
       </c>
@@ -4982,8 +5445,11 @@
       <c r="G143" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>1366</v>
       </c>
@@ -4999,8 +5465,11 @@
       <c r="G144" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>1364</v>
       </c>
@@ -5013,8 +5482,11 @@
       <c r="G145" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>1662</v>
       </c>
@@ -5033,8 +5505,11 @@
       <c r="G146" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>1663</v>
       </c>
@@ -5056,8 +5531,11 @@
       <c r="G147" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>1554</v>
       </c>
@@ -5076,8 +5554,11 @@
       <c r="G148" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>1555</v>
       </c>
@@ -5096,8 +5577,11 @@
       <c r="G149" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>1553</v>
       </c>
@@ -5113,8 +5597,11 @@
       <c r="G150" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>1664</v>
       </c>
@@ -5130,8 +5617,11 @@
       <c r="G151" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>1403</v>
       </c>
@@ -5147,8 +5637,11 @@
       <c r="G152" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>1665</v>
       </c>
@@ -5164,8 +5657,11 @@
       <c r="G153" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>1556</v>
       </c>
@@ -5181,8 +5677,11 @@
       <c r="G154" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>1681</v>
       </c>
@@ -5204,8 +5703,11 @@
       <c r="G155" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>1349</v>
       </c>
@@ -5224,8 +5726,11 @@
       <c r="G156" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>1350</v>
       </c>
@@ -5244,8 +5749,11 @@
       <c r="G157" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>1551</v>
       </c>
@@ -5261,8 +5769,11 @@
       <c r="G158" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>1557</v>
       </c>
@@ -5278,8 +5789,11 @@
       <c r="G159" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>1402</v>
       </c>
@@ -5298,8 +5812,11 @@
       <c r="G160" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>1351</v>
       </c>
@@ -5318,8 +5835,11 @@
       <c r="G161" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>1352</v>
       </c>
@@ -5338,8 +5858,11 @@
       <c r="G162" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>1353</v>
       </c>
@@ -5358,8 +5881,11 @@
       <c r="G163" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>1552</v>
       </c>
@@ -5375,8 +5901,11 @@
       <c r="G164" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>1348</v>
       </c>
@@ -5389,8 +5918,11 @@
       <c r="G165" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>1558</v>
       </c>
@@ -5406,8 +5938,11 @@
       <c r="G166" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>1559</v>
       </c>
@@ -5423,8 +5958,11 @@
       <c r="G167" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>1548</v>
       </c>
@@ -5440,8 +5978,11 @@
       <c r="G168" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>1667</v>
       </c>
@@ -5457,8 +5998,11 @@
       <c r="G169" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>1345</v>
       </c>
@@ -5477,8 +6021,11 @@
       <c r="G170" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>1344</v>
       </c>
@@ -5497,8 +6044,11 @@
       <c r="G171" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>1454</v>
       </c>
@@ -5514,8 +6064,11 @@
       <c r="G172" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>1680</v>
       </c>
@@ -5531,8 +6084,11 @@
       <c r="G173" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>1625</v>
       </c>
@@ -5548,8 +6104,11 @@
       <c r="G174" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>1455</v>
       </c>
@@ -5565,8 +6124,11 @@
       <c r="G175" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>1452</v>
       </c>
@@ -5582,8 +6144,11 @@
       <c r="G176" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>1549</v>
       </c>
@@ -5599,8 +6164,11 @@
       <c r="G177" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>1550</v>
       </c>
@@ -5616,8 +6184,11 @@
       <c r="G178" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>1453</v>
       </c>
@@ -5633,8 +6204,11 @@
       <c r="G179" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>1660</v>
       </c>
@@ -5650,8 +6224,11 @@
       <c r="G180" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>1661</v>
       </c>
@@ -5667,8 +6244,11 @@
       <c r="G181" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>1332</v>
       </c>
@@ -5687,8 +6267,11 @@
       <c r="G182" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>1330</v>
       </c>
@@ -5707,8 +6290,11 @@
       <c r="G183" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>1331</v>
       </c>
@@ -5727,8 +6313,11 @@
       <c r="G184" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>1446</v>
       </c>
@@ -5744,8 +6333,11 @@
       <c r="G185" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>1546</v>
       </c>
@@ -5764,8 +6356,11 @@
       <c r="G186" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>1328</v>
       </c>
@@ -5784,8 +6379,11 @@
       <c r="G187" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>1327</v>
       </c>
@@ -5804,8 +6402,11 @@
       <c r="G188" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>1445</v>
       </c>
@@ -5821,8 +6422,11 @@
       <c r="G189" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>1339</v>
       </c>
@@ -5841,8 +6445,11 @@
       <c r="G190" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>1340</v>
       </c>
@@ -5861,8 +6468,11 @@
       <c r="G191" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>1451</v>
       </c>
@@ -5878,8 +6488,11 @@
       <c r="G192" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>1450</v>
       </c>
@@ -5895,8 +6508,11 @@
       <c r="G193" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>1658</v>
       </c>
@@ -5915,8 +6531,11 @@
       <c r="G194" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>1438</v>
       </c>
@@ -5935,8 +6554,11 @@
       <c r="G195" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>1449</v>
       </c>
@@ -5952,8 +6574,11 @@
       <c r="G196" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>1448</v>
       </c>
@@ -5969,8 +6594,11 @@
       <c r="G197" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>1447</v>
       </c>
@@ -5986,8 +6614,11 @@
       <c r="G198" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>1386</v>
       </c>
@@ -6003,8 +6634,11 @@
       <c r="G199" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>1385</v>
       </c>
@@ -6020,8 +6654,11 @@
       <c r="G200" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>1668</v>
       </c>
@@ -6037,8 +6674,11 @@
       <c r="G201" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>1670</v>
       </c>
@@ -6057,8 +6697,11 @@
       <c r="G202" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>1671</v>
       </c>
@@ -6077,8 +6720,11 @@
       <c r="G203" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>1669</v>
       </c>
@@ -6094,8 +6740,11 @@
       <c r="G204" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>1562</v>
       </c>
@@ -6111,8 +6760,11 @@
       <c r="G205" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>1387</v>
       </c>
@@ -6128,8 +6780,11 @@
       <c r="G206" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>1563</v>
       </c>
@@ -6145,8 +6800,11 @@
       <c r="G207" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>1374</v>
       </c>
@@ -6159,8 +6817,11 @@
       <c r="G208" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>1564</v>
       </c>
@@ -6173,8 +6834,11 @@
       <c r="G209" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>1482</v>
       </c>
@@ -6187,8 +6851,11 @@
       <c r="G210" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>1480</v>
       </c>
@@ -6207,8 +6874,11 @@
       <c r="G211" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>1481</v>
       </c>
@@ -6227,8 +6897,11 @@
       <c r="G212" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>1383</v>
       </c>
@@ -6244,8 +6917,11 @@
       <c r="G213" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>1561</v>
       </c>
@@ -6261,8 +6937,11 @@
       <c r="G214" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>1384</v>
       </c>
@@ -6278,8 +6957,11 @@
       <c r="G215" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>1382</v>
       </c>
@@ -6295,8 +6977,11 @@
       <c r="G216" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>1381</v>
       </c>
@@ -6312,8 +6997,11 @@
       <c r="G217" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>1376</v>
       </c>
@@ -6332,8 +7020,11 @@
       <c r="G218" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>1379</v>
       </c>
@@ -6352,8 +7043,11 @@
       <c r="G219" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>1380</v>
       </c>
@@ -6372,8 +7066,11 @@
       <c r="G220" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>1377</v>
       </c>
@@ -6392,8 +7089,11 @@
       <c r="G221" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>1378</v>
       </c>
@@ -6412,8 +7112,11 @@
       <c r="G222" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>1372</v>
       </c>
@@ -6429,8 +7132,11 @@
       <c r="G223" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>1373</v>
       </c>
@@ -6443,8 +7149,11 @@
       <c r="G224" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>1371</v>
       </c>
@@ -6457,8 +7166,11 @@
       <c r="G225" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>1678</v>
       </c>
@@ -6474,8 +7186,11 @@
       <c r="G226" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>1574</v>
       </c>
@@ -6491,8 +7206,11 @@
       <c r="G227" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>1442</v>
       </c>
@@ -6508,8 +7226,11 @@
       <c r="G228" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>1566</v>
       </c>
@@ -6525,8 +7246,11 @@
       <c r="G229" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>1677</v>
       </c>
@@ -6542,8 +7266,11 @@
       <c r="G230" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>1440</v>
       </c>
@@ -6559,8 +7286,11 @@
       <c r="G231" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>1572</v>
       </c>
@@ -6576,8 +7306,11 @@
       <c r="G232" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>1657</v>
       </c>
@@ -6590,8 +7323,11 @@
       <c r="G233" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>1576</v>
       </c>
@@ -6607,8 +7343,11 @@
       <c r="G234" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>1675</v>
       </c>
@@ -6624,8 +7363,11 @@
       <c r="G235" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>1441</v>
       </c>
@@ -6641,8 +7383,11 @@
       <c r="G236" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>1443</v>
       </c>
@@ -6658,8 +7403,11 @@
       <c r="G237" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>1577</v>
       </c>
@@ -6675,8 +7423,11 @@
       <c r="G238" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>1676</v>
       </c>
@@ -6692,8 +7443,11 @@
       <c r="G239" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>1575</v>
       </c>
@@ -6709,8 +7463,11 @@
       <c r="G240" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>1439</v>
       </c>
@@ -6726,8 +7483,11 @@
       <c r="G241" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>1567</v>
       </c>
@@ -6743,8 +7503,11 @@
       <c r="G242" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>1568</v>
       </c>
@@ -6760,8 +7523,11 @@
       <c r="G243" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>1569</v>
       </c>
@@ -6777,8 +7543,11 @@
       <c r="G244" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>1570</v>
       </c>
@@ -6794,8 +7563,11 @@
       <c r="G245" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>1571</v>
       </c>
@@ -6814,8 +7586,11 @@
       <c r="G246" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>1573</v>
       </c>
@@ -6834,8 +7609,11 @@
       <c r="G247" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>1674</v>
       </c>
@@ -6851,8 +7629,11 @@
       <c r="G248" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>1313</v>
       </c>
@@ -6868,8 +7649,11 @@
       <c r="G249" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>1534</v>
       </c>
@@ -6885,8 +7669,11 @@
       <c r="G250" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>1533</v>
       </c>
@@ -6905,8 +7692,11 @@
       <c r="G251" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>1312</v>
       </c>
@@ -6925,8 +7715,11 @@
       <c r="G252" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>1532</v>
       </c>
@@ -6942,8 +7735,11 @@
       <c r="G253" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>1476</v>
       </c>
@@ -6959,8 +7755,11 @@
       <c r="G254" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>1535</v>
       </c>
@@ -6976,8 +7775,11 @@
       <c r="G255" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>1536</v>
       </c>
@@ -6993,8 +7795,11 @@
       <c r="G256" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>1311</v>
       </c>
@@ -7010,8 +7815,11 @@
       <c r="G257" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>1294</v>
       </c>
@@ -7024,8 +7832,11 @@
       <c r="G258" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>1308</v>
       </c>
@@ -7041,8 +7852,11 @@
       <c r="G259" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>1617</v>
       </c>
@@ -7058,8 +7872,11 @@
       <c r="G260" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>1309</v>
       </c>
@@ -7075,8 +7892,11 @@
       <c r="G261" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>1310</v>
       </c>
@@ -7092,8 +7912,11 @@
       <c r="G262" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>1293</v>
       </c>
@@ -7106,8 +7929,11 @@
       <c r="G263" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>1407</v>
       </c>
@@ -7120,8 +7946,11 @@
       <c r="G264" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>1629</v>
       </c>
@@ -7140,8 +7969,11 @@
       <c r="G265" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>1627</v>
       </c>
@@ -7160,8 +7992,11 @@
       <c r="G266" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>1630</v>
       </c>
@@ -7180,8 +8015,11 @@
       <c r="G267" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>1628</v>
       </c>
@@ -7200,8 +8038,11 @@
       <c r="G268" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>1626</v>
       </c>
@@ -7220,8 +8061,11 @@
       <c r="G269" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>1655</v>
       </c>
@@ -7243,8 +8087,11 @@
       <c r="G270" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>1656</v>
       </c>
@@ -7266,8 +8113,11 @@
       <c r="G271" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>1654</v>
       </c>
@@ -7286,8 +8136,11 @@
       <c r="G272" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>1653</v>
       </c>
@@ -7309,8 +8162,11 @@
       <c r="G273" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>1652</v>
       </c>
@@ -7332,8 +8188,11 @@
       <c r="G274" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>1651</v>
       </c>
@@ -7352,8 +8211,11 @@
       <c r="G275" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>1648</v>
       </c>
@@ -7372,8 +8234,11 @@
       <c r="G276" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>1650</v>
       </c>
@@ -7392,8 +8257,11 @@
       <c r="G277" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>1647</v>
       </c>
@@ -7412,8 +8280,11 @@
       <c r="G278" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>1649</v>
       </c>
@@ -7432,8 +8303,11 @@
       <c r="G279" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>1631</v>
       </c>
@@ -7452,8 +8326,11 @@
       <c r="G280" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>1639</v>
       </c>
@@ -7472,8 +8349,11 @@
       <c r="G281" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>1635</v>
       </c>
@@ -7495,8 +8375,11 @@
       <c r="G282" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>1636</v>
       </c>
@@ -7518,8 +8401,11 @@
       <c r="G283" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>1637</v>
       </c>
@@ -7541,8 +8427,11 @@
       <c r="G284" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>1634</v>
       </c>
@@ -7561,8 +8450,11 @@
       <c r="G285" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>1638</v>
       </c>
@@ -7581,8 +8473,11 @@
       <c r="G286" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>1632</v>
       </c>
@@ -7601,8 +8496,11 @@
       <c r="G287" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>1640</v>
       </c>
@@ -7621,8 +8519,11 @@
       <c r="G288" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>1633</v>
       </c>
@@ -7641,8 +8542,11 @@
       <c r="G289" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>1644</v>
       </c>
@@ -7661,8 +8565,11 @@
       <c r="G290" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>1645</v>
       </c>
@@ -7681,8 +8588,11 @@
       <c r="G291" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>1646</v>
       </c>
@@ -7701,8 +8611,11 @@
       <c r="G292" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>1538</v>
       </c>
@@ -7718,8 +8631,11 @@
       <c r="G293" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>1466</v>
       </c>
@@ -7735,8 +8651,11 @@
       <c r="G294" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>1465</v>
       </c>
@@ -7752,8 +8671,11 @@
       <c r="G295" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>1537</v>
       </c>
@@ -7772,8 +8694,11 @@
       <c r="G296" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>1467</v>
       </c>
@@ -7789,8 +8714,11 @@
       <c r="G297" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>1477</v>
       </c>
@@ -7806,8 +8734,11 @@
       <c r="G298" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>1464</v>
       </c>
@@ -7823,8 +8754,11 @@
       <c r="G299" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>1295</v>
       </c>
@@ -7837,8 +8771,11 @@
       <c r="G300" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>1541</v>
       </c>
@@ -7854,8 +8791,11 @@
       <c r="G301" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>1544</v>
       </c>
@@ -7871,8 +8811,11 @@
       <c r="G302" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>1542</v>
       </c>
@@ -7888,8 +8831,11 @@
       <c r="G303" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>1406</v>
       </c>
@@ -7905,8 +8851,11 @@
       <c r="G304" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>1322</v>
       </c>
@@ -7922,8 +8871,11 @@
       <c r="G305" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>1540</v>
       </c>
@@ -7939,8 +8891,11 @@
       <c r="G306" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>1624</v>
       </c>
@@ -7962,8 +8917,11 @@
       <c r="G307" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>1620</v>
       </c>
@@ -7982,8 +8940,11 @@
       <c r="G308" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>1623</v>
       </c>
@@ -8005,8 +8966,11 @@
       <c r="G309" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>1622</v>
       </c>
@@ -8025,8 +8989,11 @@
       <c r="G310" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>1621</v>
       </c>
@@ -8045,8 +9012,11 @@
       <c r="G311" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>1619</v>
       </c>
@@ -8065,8 +9035,11 @@
       <c r="G312" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>1618</v>
       </c>
@@ -8082,8 +9055,11 @@
       <c r="G313" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>1297</v>
       </c>
@@ -8096,8 +9072,11 @@
       <c r="G314" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>1478</v>
       </c>
@@ -8113,8 +9092,11 @@
       <c r="G315" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>1545</v>
       </c>
@@ -8127,8 +9109,11 @@
       <c r="G316" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>1613</v>
       </c>
@@ -8144,8 +9129,11 @@
       <c r="G317" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>1278</v>
       </c>
@@ -8161,8 +9149,11 @@
       <c r="G318" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>1276</v>
       </c>
@@ -8178,8 +9169,11 @@
       <c r="G319" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>1529</v>
       </c>
@@ -8195,8 +9189,11 @@
       <c r="G320" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>1274</v>
       </c>
@@ -8212,8 +9209,11 @@
       <c r="G321" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>1279</v>
       </c>
@@ -8229,8 +9229,11 @@
       <c r="G322" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>1277</v>
       </c>
@@ -8246,8 +9249,11 @@
       <c r="G323" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>1530</v>
       </c>
@@ -8263,8 +9269,11 @@
       <c r="G324" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>1435</v>
       </c>
@@ -8280,8 +9289,11 @@
       <c r="G325" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>1528</v>
       </c>
@@ -8300,8 +9312,11 @@
       <c r="G326" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>1282</v>
       </c>
@@ -8320,8 +9335,11 @@
       <c r="G327" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>1281</v>
       </c>
@@ -8340,8 +9358,11 @@
       <c r="G328" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>1527</v>
       </c>
@@ -8360,8 +9381,11 @@
       <c r="G329" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>1275</v>
       </c>
@@ -8377,8 +9401,11 @@
       <c r="G330" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>1242</v>
       </c>
@@ -8391,8 +9418,11 @@
       <c r="G331" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>1266</v>
       </c>
@@ -8408,8 +9438,11 @@
       <c r="G332" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>1394</v>
       </c>
@@ -8425,8 +9458,11 @@
       <c r="G333" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>1267</v>
       </c>
@@ -8442,8 +9478,11 @@
       <c r="G334" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>1240</v>
       </c>
@@ -8456,8 +9495,11 @@
       <c r="G335" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>1433</v>
       </c>
@@ -8473,8 +9515,11 @@
       <c r="G336" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>1263</v>
       </c>
@@ -8493,8 +9538,11 @@
       <c r="G337" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>1259</v>
       </c>
@@ -8513,8 +9561,11 @@
       <c r="G338" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>1261</v>
       </c>
@@ -8533,8 +9584,11 @@
       <c r="G339" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>1260</v>
       </c>
@@ -8553,8 +9607,11 @@
       <c r="G340" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>1397</v>
       </c>
@@ -8573,8 +9630,11 @@
       <c r="G341" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>1262</v>
       </c>
@@ -8593,8 +9653,11 @@
       <c r="G342" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>1258</v>
       </c>
@@ -8610,8 +9673,11 @@
       <c r="G343" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>1250</v>
       </c>
@@ -8630,8 +9696,11 @@
       <c r="G344" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>1523</v>
       </c>
@@ -8650,8 +9719,11 @@
       <c r="G345" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>1249</v>
       </c>
@@ -8667,8 +9739,11 @@
       <c r="G346" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>1264</v>
       </c>
@@ -8684,8 +9759,11 @@
       <c r="G347" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>1245</v>
       </c>
@@ -8704,8 +9782,11 @@
       <c r="G348" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>1246</v>
       </c>
@@ -8724,8 +9805,11 @@
       <c r="G349" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>1247</v>
       </c>
@@ -8744,8 +9828,11 @@
       <c r="G350" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>1248</v>
       </c>
@@ -8764,8 +9851,11 @@
       <c r="G351" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>1244</v>
       </c>
@@ -8781,8 +9871,11 @@
       <c r="G352" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>1265</v>
       </c>
@@ -8798,8 +9891,11 @@
       <c r="G353" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>1525</v>
       </c>
@@ -8818,8 +9914,11 @@
       <c r="G354" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>1683</v>
       </c>
@@ -8838,8 +9937,11 @@
       <c r="G355" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>1436</v>
       </c>
@@ -8858,8 +9960,11 @@
       <c r="G356" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>1659</v>
       </c>
@@ -8878,8 +9983,11 @@
       <c r="G357" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>1437</v>
       </c>
@@ -8898,8 +10006,11 @@
       <c r="G358" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>1526</v>
       </c>
@@ -8918,8 +10029,11 @@
       <c r="G359" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>1434</v>
       </c>
@@ -8935,8 +10049,11 @@
       <c r="G360" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>1256</v>
       </c>
@@ -8955,8 +10072,11 @@
       <c r="G361" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>1468</v>
       </c>
@@ -8975,8 +10095,11 @@
       <c r="G362" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>1255</v>
       </c>
@@ -8995,8 +10118,11 @@
       <c r="G363" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>1257</v>
       </c>
@@ -9015,8 +10141,11 @@
       <c r="G364" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>1254</v>
       </c>
@@ -9032,8 +10161,11 @@
       <c r="G365" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>1252</v>
       </c>
@@ -9052,8 +10184,11 @@
       <c r="G366" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>1524</v>
       </c>
@@ -9072,8 +10207,11 @@
       <c r="G367" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>1251</v>
       </c>
@@ -9089,8 +10227,11 @@
       <c r="G368" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>1470</v>
       </c>
@@ -9106,8 +10247,11 @@
       <c r="G369" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>1287</v>
       </c>
@@ -9123,8 +10267,11 @@
       <c r="G370" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>1290</v>
       </c>
@@ -9140,8 +10287,11 @@
       <c r="G371" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>1531</v>
       </c>
@@ -9160,8 +10310,11 @@
       <c r="G372" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>1286</v>
       </c>
@@ -9177,8 +10330,11 @@
       <c r="G373" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>1616</v>
       </c>
@@ -9194,8 +10350,11 @@
       <c r="G374" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>1291</v>
       </c>
@@ -9211,8 +10370,11 @@
       <c r="G375" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>1288</v>
       </c>
@@ -9228,8 +10390,11 @@
       <c r="G376" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>1615</v>
       </c>
@@ -9245,8 +10410,11 @@
       <c r="G377" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>1469</v>
       </c>
@@ -9262,8 +10430,11 @@
       <c r="G378" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>1289</v>
       </c>
@@ -9279,8 +10450,11 @@
       <c r="G379" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>1614</v>
       </c>
@@ -9296,8 +10470,11 @@
       <c r="G380" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>1408</v>
       </c>
@@ -9316,8 +10493,11 @@
       <c r="G381" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>1409</v>
       </c>
@@ -9336,8 +10516,11 @@
       <c r="G382" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>1410</v>
       </c>
@@ -9356,8 +10539,11 @@
       <c r="G383" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>1243</v>
       </c>
@@ -9370,8 +10556,11 @@
       <c r="G384" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>1202</v>
       </c>
@@ -9387,8 +10576,11 @@
       <c r="G385" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>1201</v>
       </c>
@@ -9401,8 +10593,11 @@
       <c r="G386" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>1197</v>
       </c>
@@ -9415,8 +10610,11 @@
       <c r="G387" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>1607</v>
       </c>
@@ -9435,8 +10633,11 @@
       <c r="G388" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>1520</v>
       </c>
@@ -9455,8 +10656,11 @@
       <c r="G389" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>1519</v>
       </c>
@@ -9472,8 +10676,11 @@
       <c r="G390" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>1609</v>
       </c>
@@ -9492,8 +10699,11 @@
       <c r="G391" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>1608</v>
       </c>
@@ -9509,8 +10719,11 @@
       <c r="G392" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>1427</v>
       </c>
@@ -9526,8 +10739,11 @@
       <c r="G393" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>1405</v>
       </c>
@@ -9540,8 +10756,11 @@
       <c r="G394" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>1518</v>
       </c>
@@ -9557,8 +10776,11 @@
       <c r="G395" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>1404</v>
       </c>
@@ -9574,8 +10796,11 @@
       <c r="G396" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>1516</v>
       </c>
@@ -9594,8 +10819,11 @@
       <c r="G397" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>1396</v>
       </c>
@@ -9614,8 +10842,11 @@
       <c r="G398" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>1517</v>
       </c>
@@ -9634,8 +10865,11 @@
       <c r="G399" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>1207</v>
       </c>
@@ -9651,8 +10885,11 @@
       <c r="G400" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>1210</v>
       </c>
@@ -9668,8 +10905,11 @@
       <c r="G401" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>1214</v>
       </c>
@@ -9685,8 +10925,11 @@
       <c r="G402" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>1679</v>
       </c>
@@ -9702,8 +10945,11 @@
       <c r="G403" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>1194</v>
       </c>
@@ -9719,8 +10965,11 @@
       <c r="G404" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>1193</v>
       </c>
@@ -9736,8 +10985,11 @@
       <c r="G405" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>1192</v>
       </c>
@@ -9750,8 +11002,11 @@
       <c r="G406" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>1200</v>
       </c>
@@ -9764,8 +11019,11 @@
       <c r="G407" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>1514</v>
       </c>
@@ -9781,8 +11039,11 @@
       <c r="G408" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>1515</v>
       </c>
@@ -9798,8 +11059,11 @@
       <c r="G409" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>1196</v>
       </c>
@@ -9812,8 +11076,11 @@
       <c r="G410" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H410" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>1111</v>
       </c>
@@ -9826,8 +11093,11 @@
       <c r="G411" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H411" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>1114</v>
       </c>
@@ -9840,8 +11110,11 @@
       <c r="G412" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>1112</v>
       </c>
@@ -9854,8 +11127,11 @@
       <c r="G413" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>1496</v>
       </c>
@@ -9871,8 +11147,11 @@
       <c r="G414" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H414" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>1412</v>
       </c>
@@ -9888,8 +11167,11 @@
       <c r="G415" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H415" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>1472</v>
       </c>
@@ -9905,8 +11187,11 @@
       <c r="G416" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H416" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>1113</v>
       </c>
@@ -9919,8 +11204,11 @@
       <c r="G417" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H417" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>1499</v>
       </c>
@@ -9939,8 +11227,11 @@
       <c r="G418" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H418" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>1421</v>
       </c>
@@ -9959,8 +11250,11 @@
       <c r="G419" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H419" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>1420</v>
       </c>
@@ -9979,8 +11273,11 @@
       <c r="G420" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H420" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>1597</v>
       </c>
@@ -9999,8 +11296,11 @@
       <c r="G421" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H421" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>1500</v>
       </c>
@@ -10019,8 +11319,11 @@
       <c r="G422" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H422" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>1415</v>
       </c>
@@ -10036,8 +11339,11 @@
       <c r="G423" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H423" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>1416</v>
       </c>
@@ -10056,8 +11362,11 @@
       <c r="G424" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H424" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>1417</v>
       </c>
@@ -10076,8 +11385,11 @@
       <c r="G425" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H425" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>1413</v>
       </c>
@@ -10093,8 +11405,11 @@
       <c r="G426" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H426" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>1418</v>
       </c>
@@ -10113,8 +11428,11 @@
       <c r="G427" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H427" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>1598</v>
       </c>
@@ -10133,8 +11451,11 @@
       <c r="G428" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H428" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>1419</v>
       </c>
@@ -10153,8 +11474,11 @@
       <c r="G429" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H429" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>1414</v>
       </c>
@@ -10170,8 +11494,11 @@
       <c r="G430" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H430" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>1120</v>
       </c>
@@ -10187,8 +11514,11 @@
       <c r="G431" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H431" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>1122</v>
       </c>
@@ -10204,8 +11534,11 @@
       <c r="G432" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H432" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>1121</v>
       </c>
@@ -10221,8 +11554,11 @@
       <c r="G433" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H433" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>1115</v>
       </c>
@@ -10235,8 +11571,11 @@
       <c r="G434" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H434" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>1596</v>
       </c>
@@ -10252,8 +11591,11 @@
       <c r="G435" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H435" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>1595</v>
       </c>
@@ -10269,8 +11611,11 @@
       <c r="G436" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H436" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>1125</v>
       </c>
@@ -10286,8 +11631,11 @@
       <c r="G437" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H437" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>1126</v>
       </c>
@@ -10306,8 +11654,11 @@
       <c r="G438" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H438" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>1497</v>
       </c>
@@ -10323,8 +11674,11 @@
       <c r="G439" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H439" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>1124</v>
       </c>
@@ -10340,8 +11694,11 @@
       <c r="G440" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H440" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>1123</v>
       </c>
@@ -10357,8 +11714,11 @@
       <c r="G441" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H441" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>1117</v>
       </c>
@@ -10371,8 +11731,11 @@
       <c r="G442" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H442" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>1498</v>
       </c>
@@ -10388,8 +11751,11 @@
       <c r="G443" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H443" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>1411</v>
       </c>
@@ -10405,8 +11771,11 @@
       <c r="G444" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H444" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>1398</v>
       </c>
@@ -10422,8 +11791,11 @@
       <c r="G445" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H445" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>1594</v>
       </c>
@@ -10436,8 +11808,11 @@
       <c r="G446" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H446" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>99999</v>
       </c>
@@ -10446,6 +11821,9 @@
       </c>
       <c r="G447" s="2" t="s">
         <v>478</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -10453,10 +11831,39 @@
   <protectedRanges>
     <protectedRange sqref="A1:XFD1" name="AllowSortFilter"/>
   </protectedRanges>
-  <autoFilter ref="A1:G447"/>
+  <autoFilter ref="A1:H447">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="angina"/>
+        <filter val="diabetes"/>
+        <filter val="heart arrhythmia"/>
+        <filter val="heart attack"/>
+        <filter val="heart failure"/>
+        <filter val="kidney failure"/>
+        <filter val="liver failure"/>
+        <filter val="liver failure?"/>
+        <filter val="lymphoedema"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G1:G29 G33:G42 G447:G1048576 G408:G442 G404:G406 G369:G384 G49:G167 G199:G210 G214:G335">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(G1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H404">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(H404))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H405">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(H405))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H406">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G1))=0</formula>
+      <formula>LEN(TRIM(H406))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
